--- a/ha-asset/01_design/00_機能一覧.xlsx
+++ b/ha-asset/01_design/00_機能一覧.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C547FE5F-E58B-4108-B9AD-9A7E4E568571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2A04F9-AE05-4B26-9320-25AE40253694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13560" yWindow="450" windowWidth="15240" windowHeight="15750" tabRatio="785" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_更新履歴" sheetId="1" r:id="rId1"/>
     <sheet name="01_機能一覧(ダッシュボード)" sheetId="2" r:id="rId2"/>
     <sheet name="02_機能一覧(API)" sheetId="3" r:id="rId3"/>
     <sheet name="03_機能一覧(Batch)" sheetId="4" r:id="rId4"/>
+    <sheet name="04_機能一覧(NodeAPI)" sheetId="5" r:id="rId5"/>
+    <sheet name="05_機能一覧(管理者用API)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'00_更新履歴'!$A$1:$E$20</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="220">
   <si>
     <t>更新日</t>
   </si>
@@ -67,9 +69,6 @@
 　ServiceをAPIに修正</t>
   </si>
   <si>
-    <t>01_機能一覧(ダッシュボード)</t>
-  </si>
-  <si>
     <t>画面名/機能名</t>
   </si>
   <si>
@@ -295,9 +294,6 @@
     <t>/accountrecovery/complete/{seq_user_id}</t>
   </si>
   <si>
-    <t>02_機能一覧(API)</t>
-  </si>
-  <si>
     <t>API</t>
   </si>
   <si>
@@ -310,9 +306,6 @@
     <t>/api/{seqUserId}/healthinfo</t>
   </si>
   <si>
-    <t>jp.co.ha.api.healthinfo.controller.HealthInfoRegistController</t>
-  </si>
-  <si>
     <t>設計書_2.0.健康情報API.xlsx</t>
   </si>
   <si>
@@ -340,28 +333,16 @@
     <t>設計書_2.1.ヘルスチェックAPI.xlsx</t>
   </si>
   <si>
-    <t>03_機能一覧(Batch)</t>
-  </si>
-  <si>
-    <t>BATCH</t>
-  </si>
-  <si>
     <t>バッチファイル名</t>
   </si>
   <si>
     <t>Batchクラス名</t>
   </si>
   <si>
-    <t>健康情報登録</t>
-  </si>
-  <si>
     <t>healthInfoFileRegist.bat</t>
   </si>
   <si>
     <t>jp.co.ha.batch.execute.HealthInfoFileRegistBatch</t>
-  </si>
-  <si>
-    <t>設計書_3.0.健康情報登録バッチ.xlsx</t>
   </si>
   <si>
     <t>ヘルスチェックバッチ</t>
@@ -462,6 +443,577 @@
     <rPh sb="26" eb="27">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>健康情報一括登録バッチ</t>
+    <rPh sb="0" eb="4">
+      <t>ケンコウジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_3.0.健康情報登録バッチ.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>API名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>BATCH名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ヘルスチェックAPI</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>トークン発行API</t>
+    <rPh sb="4" eb="6">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>基礎健康情報計算API</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ケンコウジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>カロリー計算API</t>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>肺活量計算API</t>
+    <rPh sb="0" eb="3">
+      <t>ハイカツリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/healthcheck</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/token</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/basic</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/calorie</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/breath_capacity</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_4.0.ヘルスチェックAPI.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_4.1.トークン発行API.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_4.2.基礎健康情報計算API.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_4.3.カロリー計算API.xlsx</t>
+  </si>
+  <si>
+    <t>設計書_4.4.肺活量計算API.xlsx</t>
+  </si>
+  <si>
+    <t>routes/recieve/basic.js</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>routes/recieve/token.js</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>routes/recieve/calorie.js</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>routes/recieve/breath_capacity.js</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>■04_機能一覧(NodeAPI)
+■05_機能一覧(管理者API)
+上記シートを追加</t>
+    <rPh sb="35" eb="37">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_5.0.ヘルスチェックAPI.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_5.1.ログインAPI.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_5.2.管理者サイトユーザ情報API.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_5.3.アカウント情報API.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_5.6.お知らせ情報API.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_5.7.メモ情報API.xlsx</t>
+  </si>
+  <si>
+    <t>ログインAPI</t>
+  </si>
+  <si>
+    <t>Top情報取得API</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Top情報(健康情報)取得API</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ケンコウジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Top情報(アカウント情報)取得API</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザ情報取得API</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザ情報作成API</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザ情報編集API</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アカウント情報一覧取得API</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アカウント情報編集API</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>健康情報編集API</t>
+    <rPh sb="0" eb="4">
+      <t>ケンコウジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>お知らせ情報一覧取得API</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>お知らせ情報登録API</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>お知らせ情報編集API</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>お知らせ情報削除API</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモ情報一覧取得API</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモ情報登録API</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモ情報編集API</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモ情報削除API</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_5.5.健康情報API.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_5.4.API通信情報API.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_5.8.ツールAPI.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>権限マスタ一覧取得API</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>健康情報一覧取得API</t>
+    <rPh sb="0" eb="4">
+      <t>ケンコウジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>API通信情報一覧取得API</t>
+    <rPh sb="3" eb="5">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/healthcheck</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/login</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/top</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/top/healthinfo</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/top/account</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/user</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/account</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/user/{seq_user_id}</t>
+  </si>
+  <si>
+    <t>/api/root/apidata</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/healthinfo</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/healthinfo/{seq_health_info_id}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/news</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/note</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/roles</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/note/{seq_root_user_note_info_id}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/news/{seq_news_info_id}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.account.controller.AccountEditApiController</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/account/{seq_user_id}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.account.controller.AccountListApiController</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.api.controller.ApiDataListApiController</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.healthcheck.controller.HealthCheckApiController</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.healthinfo.controller.HealthInfoListApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.healthinfo.controller.HealthInfoEditApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.news.controller.NewsDeleteApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.news.controller.NewsEditApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.news.controller.NewsEntryApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.news.controller.NewsListApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.note.controller.NoteDeleteApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.note.controller.NoteEditApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.note.controller.NoteEntryApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.note.controller.NoteListApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.tools.controller.RoleMtListApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.user.controller.UserEditApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.user.controller.UserEntryApiController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.user.controller.UserRetrieveController</t>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.top.controller.TopApiController</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.business.api.node.BasicHealthInfoCalcApi</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.business.api.node.BreathingCapacityCalcApi</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.business.api.node.CalorieCalcApi</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.business.api.node.HealthCheckApi</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.business.api.node.TokenApi</t>
+  </si>
+  <si>
+    <t>jp.co.ha.api.healthinfo.controller.HealthInfoRegistController</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.business.api.root.HealthCheckApi</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -612,7 +1164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -917,12 +1469,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="62">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,9 +1562,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -991,18 +1583,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1012,15 +1595,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1036,9 +1613,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1054,18 +1628,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1073,9 +1638,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,7 +1673,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1125,6 +1687,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1446,9 +2020,9 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -1459,26 +2033,26 @@
     <col min="5" max="5" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="66" customFormat="1" ht="19.5">
-      <c r="A1" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+    <row r="1" spans="1:5" s="55" customFormat="1" ht="19.5">
+      <c r="A1" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="19.5">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="63"/>
+      <c r="C3" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="1">
@@ -1496,7 +2070,7 @@
         <v>43050</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C12" si="0">C4+0.01</f>
+        <f t="shared" ref="C5:C13" si="0">C4+0.01</f>
         <v>1.01</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1572,7 +2146,7 @@
         <v>1.07</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33">
@@ -1584,13 +2158,20 @@
         <v>1.08</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="49.5">
+      <c r="B13" s="4">
+        <v>45088</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="4"/>
@@ -1643,8 +2224,8 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -1658,14 +2239,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5">
-      <c r="A1" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="43" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>01_機能一覧(ダッシュボード)</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="7"/>
@@ -1677,484 +2259,484 @@
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="D3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="E3" s="44" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="11"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="11"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="11"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="16"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="11"/>
-      <c r="B8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="11"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="16"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="11"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="11"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="11"/>
-      <c r="B12" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="11"/>
-      <c r="B13" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="11"/>
-      <c r="B14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="11"/>
-      <c r="B15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="11"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="D16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="18.75">
       <c r="A17" s="11"/>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="16"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="18.75">
       <c r="A18" s="11"/>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="16"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="18.75">
       <c r="A19" s="11"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="D19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="18.75">
       <c r="A20" s="11"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="16"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="18.75">
       <c r="A21" s="11"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="16"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="18.75">
       <c r="A22" s="11"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="D22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="E22" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="18.75">
       <c r="A23" s="11"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="16"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="18.75">
       <c r="A24" s="11"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="18.75">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34" t="s">
+      <c r="C25" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="D25" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="E25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="37"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="1:6" ht="18.75">
       <c r="A26" s="11"/>
-      <c r="B26" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="18.75">
       <c r="A27" s="11"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="D27" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="E27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="16"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="18.75">
       <c r="A28" s="11"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="D28" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="E28" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="18.75">
       <c r="A29" s="11"/>
-      <c r="B29" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="16"/>
+      <c r="B29" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="18.75">
       <c r="A30" s="11"/>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="D30" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="E30" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6" ht="18.75">
       <c r="A31" s="11"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="16"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="18.75">
       <c r="A32" s="11"/>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="16"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
       <c r="A33" s="11"/>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="16"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" ht="18.75">
       <c r="A34" s="11"/>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="19.5" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" ht="19.5" customHeight="1">
       <c r="A38" s="11"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="19.5" customHeight="1">
       <c r="A39" s="11"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1">
       <c r="A40" s="11"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="16"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="18.75">
       <c r="A41" s="7"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="18.75">
@@ -2182,7 +2764,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -2197,15 +2779,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5">
-      <c r="A1" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="A1" s="49" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>02_機能一覧(API)</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7"/>
@@ -2218,218 +2801,218 @@
     </row>
     <row r="3" spans="1:7" ht="19.5">
       <c r="A3" s="9"/>
-      <c r="B3" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="59" t="s">
+      <c r="B3" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11"/>
-      <c r="B5" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="16"/>
+      <c r="B5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="F6" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="11"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="11"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="16"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="11"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="11"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="11"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="11"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="11"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="11"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="11"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="11"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="7"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
@@ -2458,7 +3041,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -2472,14 +3055,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5">
-      <c r="A1" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="A1" s="45" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>03_機能一覧(Batch)</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="7"/>
@@ -2491,186 +3075,186 @@
     </row>
     <row r="3" spans="1:6" ht="19.5">
       <c r="A3" s="9"/>
-      <c r="B3" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>13</v>
+      <c r="B3" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11"/>
-      <c r="B5" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="16"/>
+      <c r="B5" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11"/>
-      <c r="B6" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="11"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="11"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="11"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="11"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="11"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="11"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6">
@@ -2686,4 +3270,801 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2E0AA0-43C7-4D0B-85E5-CB58E6AEC1AD}">
+  <sheetPr>
+    <tabColor theme="9"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5">
+      <c r="A1" s="49" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>04_機能一覧(NodeAPI)</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="11"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC65F91-89F6-4293-91D4-1CA4455E4390}">
+  <sheetPr>
+    <tabColor theme="9"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5">
+      <c r="A1" s="49" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>05_機能一覧(管理者用API)</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11"/>
+      <c r="B13" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11"/>
+      <c r="B15" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11"/>
+      <c r="B16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11"/>
+      <c r="B17" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11"/>
+      <c r="B18" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="58"/>
+      <c r="B20" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="58"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="58"/>
+      <c r="B21" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="58"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="58"/>
+      <c r="B22" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="58"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="58"/>
+      <c r="B23" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="58"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="58"/>
+      <c r="B24" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="58"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="58"/>
+      <c r="B25" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="58"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="58"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="58"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="58"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="58"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="58"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="58"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="58"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="58"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="58"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="58"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="11"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ha-asset/01_design/00_機能一覧.xlsx
+++ b/ha-asset/01_design/00_機能一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2A04F9-AE05-4B26-9320-25AE40253694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB793D-5218-4274-BC92-273BE86AFB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="450" windowWidth="15240" windowHeight="15750" tabRatio="785" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="135" windowWidth="23325" windowHeight="14625" tabRatio="785" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_更新履歴" sheetId="1" r:id="rId1"/>
@@ -2021,7 +2021,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2224,8 +2224,8 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -2764,7 +2764,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -3041,7 +3041,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -3280,9 +3280,9 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -3581,9 +3581,9 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>

--- a/ha-asset/01_design/00_機能一覧.xlsx
+++ b/ha-asset/01_design/00_機能一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB793D-5218-4274-BC92-273BE86AFB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B577D0-12B7-4037-9AF4-338556736E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="135" windowWidth="23325" windowHeight="14625" tabRatio="785" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="525" windowWidth="17880" windowHeight="14625" tabRatio="785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_更新履歴" sheetId="1" r:id="rId1"/>
@@ -2013,6 +2013,26 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{BC6F0731-FCDE-4A91-88EA-245186DECCB9}">
+  <we:reference id="wa200007447" version="1.0.0.0" store="ja-JP" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200007447" version="1.0.0.0" store="wa200007447" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -2224,8 +2244,8 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -2762,7 +2782,7 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3581,9 +3601,9 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>

--- a/ha-asset/01_design/00_機能一覧.xlsx
+++ b/ha-asset/01_design/00_機能一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B577D0-12B7-4037-9AF4-338556736E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE87F6-9C06-4A18-91C4-0189D7E5ABCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="525" windowWidth="17880" windowHeight="14625" tabRatio="785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="180" windowWidth="24675" windowHeight="14625" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_更新履歴" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="05_機能一覧(管理者用API)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'00_更新履歴'!$A$1:$E$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'00_更新履歴'!$A$1:$E$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'04_機能一覧(NodeAPI)'!$A$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="225">
   <si>
     <t>更新日</t>
   </si>
@@ -342,18 +343,12 @@
     <t>healthInfoFileRegist.bat</t>
   </si>
   <si>
-    <t>jp.co.ha.batch.execute.HealthInfoFileRegistBatch</t>
-  </si>
-  <si>
     <t>ヘルスチェックバッチ</t>
   </si>
   <si>
     <t>healthCheckApi.bat</t>
   </si>
   <si>
-    <t>jp.co.ha.batch.execute.HealthCheckApiBatch</t>
-  </si>
-  <si>
     <t>設計書_3.1.ヘルスチェックバッチ.xlsx</t>
   </si>
   <si>
@@ -361,9 +356,6 @@
   </si>
   <si>
     <t>monthlyHealthInfoSummary.bat</t>
-  </si>
-  <si>
-    <t>jp.co.ha.batch.execute.MonthlyHealthInfoSummaryBatch</t>
   </si>
   <si>
     <t>設計書_3.2.月次健康情報集計バッチ.xlsx</t>
@@ -1014,6 +1006,65 @@
   </si>
   <si>
     <t>jp.co.ha.business.api.root.HealthCheckApi</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PI Gateway以降のため、削除</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>■04_機能一覧(NodeAPI)
+以下2APIについて、削除。
+　ヘルスチェックAPI
+　トークン発行API</t>
+    <rPh sb="18" eb="20">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>healthInfoMigrate.bat</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>健康情報連携バッチ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.batch.healthInfoMigrateBatch.HealthInfoMigrateBatch</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.batch.healthInfoFileRegist.HealthInfoFileRegistBatch</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.batch.healthcheck.HealthCheckApiBatch</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.batch.monthlyHealthInfoSummary.MonthlyHealthInfoSummaryBatch</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1024,7 +1075,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1119,8 +1170,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1163,6 +1221,12 @@
         <bgColor rgb="FF68CB33"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -1516,7 +1580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1699,6 +1763,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2038,11 +2120,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -2055,7 +2137,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="55" customFormat="1" ht="19.5">
       <c r="A1" s="57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -2067,10 +2149,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E3" s="52"/>
     </row>
@@ -2090,7 +2172,7 @@
         <v>43050</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C13" si="0">C4+0.01</f>
+        <f t="shared" ref="C5:C14" si="0">C4+0.01</f>
         <v>1.01</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2166,7 +2248,7 @@
         <v>1.07</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33">
@@ -2178,7 +2260,7 @@
         <v>1.08</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="49.5">
@@ -2190,13 +2272,20 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="66">
+      <c r="B14" s="4">
+        <v>45860</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="4"/>
@@ -2224,9 +2313,44 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -2244,8 +2368,8 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -2355,7 +2479,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="20"/>
@@ -2391,7 +2515,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>31</v>
@@ -2404,10 +2528,10 @@
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="11"/>
       <c r="B12" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="20"/>
@@ -2416,10 +2540,10 @@
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="11"/>
       <c r="B13" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="20"/>
@@ -2431,7 +2555,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2443,7 +2567,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="19"/>
@@ -2782,9 +2906,9 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -2822,7 +2946,7 @@
     <row r="3" spans="1:7" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>85</v>
@@ -2847,10 +2971,10 @@
         <v>87</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>88</v>
@@ -3059,9 +3183,9 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -3069,7 +3193,7 @@
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
     <col min="5" max="5" width="32.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.625" customWidth="1"/>
   </cols>
@@ -3096,7 +3220,7 @@
     <row r="3" spans="1:6" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>97</v>
@@ -3112,56 +3236,62 @@
     <row r="4" spans="1:6">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11"/>
       <c r="B5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>104</v>
       </c>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>108</v>
       </c>
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>221</v>
+      </c>
       <c r="E7" s="28"/>
       <c r="F7" s="15"/>
     </row>
@@ -3298,11 +3428,11 @@
     <tabColor theme="9"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -3314,9 +3444,10 @@
     <col min="5" max="5" width="42.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5">
+    <row r="1" spans="1:9" ht="19.5">
       <c r="A1" s="49" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>04_機能一覧(NodeAPI)</v>
@@ -3328,7 +3459,7 @@
       <c r="F1" s="50"/>
       <c r="G1" s="50"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3337,10 +3468,10 @@
       <c r="F2" s="8"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5">
+    <row r="3" spans="1:9" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>85</v>
@@ -3356,102 +3487,108 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>137</v>
+      <c r="B4" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="11"/>
-      <c r="B5" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="B5" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="I5" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="11"/>
       <c r="B6" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="11"/>
       <c r="B7" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="11"/>
       <c r="B8" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="11"/>
       <c r="B9" s="22"/>
       <c r="C9" s="19"/>
@@ -3460,7 +3597,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="11"/>
       <c r="B10" s="16"/>
       <c r="C10" s="19"/>
@@ -3469,7 +3606,7 @@
       <c r="F10" s="34"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="11"/>
       <c r="B11" s="17"/>
       <c r="C11" s="25"/>
@@ -3478,7 +3615,7 @@
       <c r="F11" s="34"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="11"/>
       <c r="B12" s="17"/>
       <c r="C12" s="25"/>
@@ -3487,7 +3624,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" s="11"/>
       <c r="B13" s="17"/>
       <c r="C13" s="25"/>
@@ -3496,7 +3633,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" s="11"/>
       <c r="B14" s="17"/>
       <c r="C14" s="25"/>
@@ -3505,7 +3642,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" s="11"/>
       <c r="B15" s="17"/>
       <c r="C15" s="25"/>
@@ -3514,7 +3651,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" s="11"/>
       <c r="B16" s="17"/>
       <c r="C16" s="25"/>
@@ -3641,7 +3778,7 @@
     <row r="3" spans="1:7" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>85</v>
@@ -3660,47 +3797,47 @@
     <row r="4" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="59"/>
@@ -3709,10 +3846,10 @@
     <row r="7" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="17"/>
@@ -3722,10 +3859,10 @@
     <row r="8" spans="1:7">
       <c r="A8" s="11"/>
       <c r="B8" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="17"/>
@@ -3735,30 +3872,30 @@
     <row r="9" spans="1:7">
       <c r="A9" s="11"/>
       <c r="B9" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="60"/>
@@ -3767,13 +3904,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="25"/>
@@ -3782,30 +3919,30 @@
     <row r="12" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="61" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -3814,47 +3951,47 @@
     <row r="14" spans="1:7">
       <c r="A14" s="11"/>
       <c r="B14" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="61" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="11"/>
       <c r="B16" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -3863,30 +4000,30 @@
     <row r="17" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11"/>
       <c r="B18" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="59"/>
@@ -3895,13 +4032,13 @@
     <row r="19" spans="1:7">
       <c r="A19" s="11"/>
       <c r="B19" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="60"/>
@@ -3910,13 +4047,13 @@
     <row r="20" spans="1:7">
       <c r="A20" s="58"/>
       <c r="B20" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -3925,30 +4062,30 @@
     <row r="21" spans="1:7">
       <c r="A21" s="58"/>
       <c r="B21" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="58"/>
       <c r="B22" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="59"/>
@@ -3957,13 +4094,13 @@
     <row r="23" spans="1:7">
       <c r="A23" s="58"/>
       <c r="B23" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="60"/>
@@ -3972,13 +4109,13 @@
     <row r="24" spans="1:7">
       <c r="A24" s="58"/>
       <c r="B24" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -3987,17 +4124,17 @@
     <row r="25" spans="1:7">
       <c r="A25" s="58"/>
       <c r="B25" s="17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G25" s="58"/>
     </row>

--- a/ha-asset/01_design/00_機能一覧.xlsx
+++ b/ha-asset/01_design/00_機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE87F6-9C06-4A18-91C4-0189D7E5ABCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBE32A1-3F79-40E0-96EB-90741316AA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="180" windowWidth="24675" windowHeight="14625" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="25335" windowHeight="15150" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_更新履歴" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="240">
   <si>
     <t>更新日</t>
   </si>
@@ -381,10 +381,6 @@
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>00.更新履歴</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -1065,6 +1061,154 @@
   </si>
   <si>
     <t>jp.co.ha.batch.monthlyHealthInfoSummary.MonthlyHealthInfoSummaryBatch</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>実装に合わせ最新化</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>inquiry/input</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>問い合わせ入力画面</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>問い合わせ完了画面</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>問い合わせ確認画面</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>inquiry/confirm</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>inquiry/complete</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_1.9.問い合わせ情報登録機能.xlsx</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.dashboard.inquiry.controller.InquiryController</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>問い合わせ情報一覧取得API</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>問い合わせ情報編集API</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/inquiry</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/inquiry/{seq_inquiry_mng_id}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.inquiry.controller.InquiryEditApiController</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.inquiry.controller.InquiryListApiController</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>設計書_5.10.問い合わせ情報API.xlsx</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2122,9 +2266,9 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -2136,8 +2280,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="55" customFormat="1" ht="19.5">
-      <c r="A1" s="57" t="s">
-        <v>111</v>
+      <c r="A1" s="57" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>00_更新履歴</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -2172,7 +2317,7 @@
         <v>43050</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C14" si="0">C4+0.01</f>
+        <f>IF(B5="","",C4+0.01)</f>
         <v>1.01</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2184,7 +2329,7 @@
         <v>43239</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6:C26" si="0">IF(B6="","",C5+0.01)</f>
         <v>1.02</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2248,7 +2393,7 @@
         <v>1.07</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33">
@@ -2260,7 +2405,7 @@
         <v>1.08</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="49.5">
@@ -2272,7 +2417,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="66">
@@ -2284,67 +2429,107 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="4">
+        <v>45881</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4">
@@ -2368,8 +2553,8 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -2515,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>31</v>
@@ -2531,7 +2716,7 @@
         <v>108</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="20"/>
@@ -2540,10 +2725,10 @@
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="11"/>
       <c r="B13" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="20"/>
@@ -2555,7 +2740,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2567,7 +2752,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="19"/>
@@ -2829,25 +3014,41 @@
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="19"/>
+      <c r="B35" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>231</v>
+      </c>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="19"/>
+      <c r="B36" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="19.5" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="35"/>
+      <c r="B37" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="18"/>
       <c r="E37" s="19"/>
       <c r="F37" s="15"/>
     </row>
@@ -2908,7 +3109,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -2946,7 +3147,7 @@
     <row r="3" spans="1:7" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>85</v>
@@ -2971,7 +3172,7 @@
         <v>87</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>106</v>
@@ -3183,9 +3384,9 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -3220,7 +3421,7 @@
     <row r="3" spans="1:6" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>97</v>
@@ -3236,16 +3437,16 @@
     <row r="4" spans="1:6">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -3258,7 +3459,7 @@
         <v>101</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>102</v>
@@ -3274,7 +3475,7 @@
         <v>104</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>105</v>
@@ -3284,13 +3485,13 @@
     <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>220</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>221</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="15"/>
@@ -3432,7 +3633,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -3471,7 +3672,7 @@
     <row r="3" spans="1:9" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>85</v>
@@ -3490,101 +3691,101 @@
     <row r="4" spans="1:9">
       <c r="A4" s="11"/>
       <c r="B4" s="62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="15"/>
       <c r="I4" s="67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="11"/>
       <c r="B5" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="15"/>
       <c r="I5" s="67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="11"/>
       <c r="B6" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="11"/>
       <c r="B7" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="11"/>
       <c r="B8" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="15"/>
     </row>
@@ -3736,17 +3937,17 @@
     <tabColor theme="9"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.25" bestFit="1" customWidth="1"/>
@@ -3778,7 +3979,7 @@
     <row r="3" spans="1:7" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>85</v>
@@ -3797,47 +3998,47 @@
     <row r="4" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="59"/>
@@ -3846,10 +4047,10 @@
     <row r="7" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="17"/>
@@ -3859,10 +4060,10 @@
     <row r="8" spans="1:7">
       <c r="A8" s="11"/>
       <c r="B8" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="17"/>
@@ -3872,30 +4073,30 @@
     <row r="9" spans="1:7">
       <c r="A9" s="11"/>
       <c r="B9" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="60"/>
@@ -3904,13 +4105,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="25"/>
@@ -3919,30 +4120,30 @@
     <row r="12" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -3951,47 +4152,47 @@
     <row r="14" spans="1:7">
       <c r="A14" s="11"/>
       <c r="B14" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="11"/>
       <c r="B16" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -4000,30 +4201,30 @@
     <row r="17" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11"/>
       <c r="B18" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="59"/>
@@ -4032,13 +4233,13 @@
     <row r="19" spans="1:7">
       <c r="A19" s="11"/>
       <c r="B19" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="60"/>
@@ -4047,13 +4248,13 @@
     <row r="20" spans="1:7">
       <c r="A20" s="58"/>
       <c r="B20" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -4062,30 +4263,30 @@
     <row r="21" spans="1:7">
       <c r="A21" s="58"/>
       <c r="B21" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="58"/>
       <c r="B22" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="59"/>
@@ -4094,13 +4295,13 @@
     <row r="23" spans="1:7">
       <c r="A23" s="58"/>
       <c r="B23" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="60"/>
@@ -4109,13 +4310,13 @@
     <row r="24" spans="1:7">
       <c r="A24" s="58"/>
       <c r="B24" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -4124,34 +4325,48 @@
     <row r="25" spans="1:7">
       <c r="A25" s="58"/>
       <c r="B25" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="58"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="35"/>
+      <c r="B26" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>238</v>
+      </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="F26" s="61" t="s">
+        <v>239</v>
+      </c>
       <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>237</v>
+      </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="58"/>
@@ -4184,40 +4399,103 @@
       <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="11"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="17"/>
       <c r="C31" s="25"/>
       <c r="D31" s="35"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="15"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="11"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="15"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="58"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="7"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="7"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="58"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="58"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="58"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="58"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="58"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="58"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="58"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="58"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="58"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="11"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>

--- a/ha-asset/01_design/00_機能一覧.xlsx
+++ b/ha-asset/01_design/00_機能一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBE32A1-3F79-40E0-96EB-90741316AA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B786EE-F352-4E8A-B0DF-D579DC93C53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="25335" windowHeight="15150" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_更新履歴" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,25 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'00_更新履歴'!$A$1:$E$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'04_機能一覧(NodeAPI)'!$A$1:$G$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="243">
   <si>
     <t>更新日</t>
   </si>
@@ -1209,6 +1222,30 @@
   </si>
   <si>
     <t>設計書_5.10.問い合わせ情報API.xlsx</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>問い合わせ情報通知API</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/api/root/inquiry/notice</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.root.contents.inquiry.controller.InquiryNoticeApiController</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1372,7 +1409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1720,11 +1757,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1925,6 +1999,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1945,9 +2028,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1985,7 +2068,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2091,7 +2174,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2233,7 +2316,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2445,12 +2528,16 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="str">
+      <c r="B16" s="4">
+        <v>45958</v>
+      </c>
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="3"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="4"/>
@@ -3633,7 +3720,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -3940,8 +4027,8 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -4334,7 +4421,7 @@
         <v>204</v>
       </c>
       <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="20" t="s">
         <v>169</v>
       </c>
       <c r="G25" s="58"/>
@@ -4350,8 +4437,8 @@
       <c r="D26" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="61" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="68" t="s">
         <v>239</v>
       </c>
       <c r="G26" s="58"/>
@@ -4367,17 +4454,23 @@
       <c r="D27" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="58"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="B28" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="58"/>
     </row>
     <row r="29" spans="1:7">

--- a/ha-asset/01_design/00_機能一覧.xlsx
+++ b/ha-asset/01_design/00_機能一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B786EE-F352-4E8A-B0DF-D579DC93C53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD969EB-3E23-429D-B3C6-CC93F60E27F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11550" yWindow="1110" windowWidth="17160" windowHeight="14295" tabRatio="785" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_更新履歴" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="249">
   <si>
     <t>更新日</t>
   </si>
@@ -348,9 +348,6 @@
   </si>
   <si>
     <t>バッチファイル名</t>
-  </si>
-  <si>
-    <t>Batchクラス名</t>
   </si>
   <si>
     <t>healthInfoFileRegist.bat</t>
@@ -1061,22 +1058,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>jp.co.ha.batch.healthInfoMigrateBatch.HealthInfoMigrateBatch</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>jp.co.ha.batch.healthInfoFileRegist.HealthInfoFileRegistBatch</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>jp.co.ha.batch.healthcheck.HealthCheckApiBatch</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>jp.co.ha.batch.monthlyHealthInfoSummary.MonthlyHealthInfoSummaryBatch</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>実装に合わせ最新化</t>
     <rPh sb="0" eb="2">
       <t>ジッソウ</t>
@@ -1246,6 +1227,50 @@
   </si>
   <si>
     <t>jp.co.ha.root.contents.inquiry.controller.InquiryNoticeApiController</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>AWS SQS取込バッチ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>データパージバッチ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>dataPurge.bat</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>awsQueueImport.bat</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Configクラス名</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.batch.healthcheck.HealthCheckConfig</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.batch.healthInfoFileRegist.HealthInfoFileRegistConfig</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.batch.datapurge.DataPurgeConfig</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.batch.healthInfoMigrate.HealthInfoMigrateConfig</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.batch.monthlyHealthInfoSummary.MonthlyHealthInfoSummaryConfig</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>jp.co.ha.batch.sqsImport.AwsSqsImportConfig</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2349,9 +2374,9 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -2377,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>110</v>
       </c>
       <c r="E3" s="52"/>
     </row>
@@ -2476,7 +2501,7 @@
         <v>1.07</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33">
@@ -2488,7 +2513,7 @@
         <v>1.08</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="49.5">
@@ -2500,7 +2525,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="66">
@@ -2512,7 +2537,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2524,7 +2549,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2536,16 +2561,20 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="str">
+      <c r="B17" s="4">
+        <v>45965</v>
+      </c>
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="3"/>
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="4"/>
@@ -2751,7 +2780,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="20"/>
@@ -2787,7 +2816,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>31</v>
@@ -2800,10 +2829,10 @@
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="11"/>
       <c r="B12" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="20"/>
@@ -2812,10 +2841,10 @@
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="11"/>
       <c r="B13" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="20"/>
@@ -2827,7 +2856,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2839,7 +2868,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="19"/>
@@ -3102,26 +3131,26 @@
     <row r="35" spans="1:6" ht="19.5" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>226</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>231</v>
       </c>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="17" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="20"/>
@@ -3130,10 +3159,10 @@
     <row r="37" spans="1:6" ht="19.5" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="17" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="19"/>
@@ -3234,7 +3263,7 @@
     <row r="3" spans="1:7" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>85</v>
@@ -3259,10 +3288,10 @@
         <v>87</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>88</v>
@@ -3471,9 +3500,9 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="18.75"/>
@@ -3508,13 +3537,13 @@
     <row r="3" spans="1:6" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>97</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>12</v>
@@ -3524,78 +3553,90 @@
     <row r="4" spans="1:6">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>120</v>
       </c>
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11"/>
       <c r="B5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>102</v>
       </c>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>248</v>
+      </c>
       <c r="E8" s="40"/>
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="11"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>245</v>
+      </c>
       <c r="E9" s="40"/>
       <c r="F9" s="15"/>
     </row>
@@ -3759,7 +3800,7 @@
     <row r="3" spans="1:9" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>85</v>
@@ -3778,101 +3819,101 @@
     <row r="4" spans="1:9">
       <c r="A4" s="11"/>
       <c r="B4" s="62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="15"/>
       <c r="I4" s="67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="11"/>
       <c r="B5" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G5" s="15"/>
       <c r="I5" s="67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="11"/>
       <c r="B6" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="11"/>
       <c r="B7" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="11"/>
       <c r="B8" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8" s="15"/>
     </row>
@@ -4066,7 +4107,7 @@
     <row r="3" spans="1:7" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>85</v>
@@ -4085,47 +4126,47 @@
     <row r="4" spans="1:7">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11"/>
       <c r="B5" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="59"/>
@@ -4134,10 +4175,10 @@
     <row r="7" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="17"/>
@@ -4147,10 +4188,10 @@
     <row r="8" spans="1:7">
       <c r="A8" s="11"/>
       <c r="B8" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="17"/>
@@ -4160,30 +4201,30 @@
     <row r="9" spans="1:7">
       <c r="A9" s="11"/>
       <c r="B9" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="60"/>
@@ -4192,13 +4233,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="25"/>
@@ -4207,30 +4248,30 @@
     <row r="12" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -4239,47 +4280,47 @@
     <row r="14" spans="1:7">
       <c r="A14" s="11"/>
       <c r="B14" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="11"/>
       <c r="B16" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -4288,30 +4329,30 @@
     <row r="17" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11"/>
       <c r="B18" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="59"/>
@@ -4320,13 +4361,13 @@
     <row r="19" spans="1:7">
       <c r="A19" s="11"/>
       <c r="B19" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="60"/>
@@ -4335,13 +4376,13 @@
     <row r="20" spans="1:7">
       <c r="A20" s="58"/>
       <c r="B20" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -4350,30 +4391,30 @@
     <row r="21" spans="1:7">
       <c r="A21" s="58"/>
       <c r="B21" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="58"/>
       <c r="B22" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="59"/>
@@ -4382,13 +4423,13 @@
     <row r="23" spans="1:7">
       <c r="A23" s="58"/>
       <c r="B23" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="60"/>
@@ -4397,13 +4438,13 @@
     <row r="24" spans="1:7">
       <c r="A24" s="58"/>
       <c r="B24" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -4412,47 +4453,47 @@
     <row r="25" spans="1:7">
       <c r="A25" s="58"/>
       <c r="B25" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="58"/>
       <c r="B26" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>233</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>238</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="68" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58"/>
       <c r="B27" s="17" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="69"/>
@@ -4461,13 +4502,13 @@
     <row r="28" spans="1:7">
       <c r="A28" s="58"/>
       <c r="B28" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="70"/>
